--- a/ED50/Past_Inshore_Genets_ED50.xlsx
+++ b/ED50/Past_Inshore_Genets_ED50.xlsx
@@ -389,10 +389,10 @@
         <v>37.11308240669912</v>
       </c>
       <c r="C2">
-        <v>37.81280587899757</v>
+        <v>37.5513798303019</v>
       </c>
       <c r="D2">
-        <v>37.82951679083575</v>
+        <v>37.41191392868211</v>
       </c>
     </row>
     <row r="3">
@@ -405,10 +405,10 @@
         <v>37.12617035062077</v>
       </c>
       <c r="C3">
-        <v>38.4607162818819</v>
+        <v>38.19481299091082</v>
       </c>
       <c r="D3">
-        <v>38.53985045061695</v>
+        <v>38.8683304223175</v>
       </c>
     </row>
     <row r="4">
@@ -421,10 +421,10 @@
         <v>37.76261624811656</v>
       </c>
       <c r="C4">
-        <v>37.97345222277642</v>
+        <v>37.93527167106304</v>
       </c>
       <c r="D4">
-        <v>37.96134542357633</v>
+        <v>38.12493431171944</v>
       </c>
     </row>
     <row r="5">
@@ -437,10 +437,10 @@
         <v>37.78024095316759</v>
       </c>
       <c r="C5">
-        <v>37.5094037733403</v>
+        <v>37.30760049005133</v>
       </c>
       <c r="D5">
-        <v>38.12505817645846</v>
+        <v>37.74486609977946</v>
       </c>
     </row>
     <row r="6">
@@ -453,10 +453,10 @@
         <v>37.16886043314424</v>
       </c>
       <c r="C6">
-        <v>37.37482677528607</v>
+        <v>37.45934422616917</v>
       </c>
       <c r="D6">
-        <v>37.05764977747349</v>
+        <v>37.3459741174844</v>
       </c>
     </row>
   </sheetData>
